--- a/biology/Zoologie/Aphidiinae/Aphidiinae.xlsx
+++ b/biology/Zoologie/Aphidiinae/Aphidiinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Aphidiinae forment une sous-famille d'hyménoptères de la famille des Braconidae de petite taille (quelques millimètres).
 </t>
@@ -511,7 +523,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme leur nom l'indique, ce sont des endoparasites d’Aphides (pucerons). Les femelles parasitent leurs proies en pondant directement leurs œufs à l'intérieur de leur hôte à l'aide de leur tarière qui ressemble à un dard. Les larves se développent à l'intérieur des pucerons où elles exécuteront leur métamorphose avant de s'extirper de la carcasse de leur hôte devenu une simple enveloppe vide appelée « momie ».
 </t>
@@ -542,7 +556,9 @@
           <t>Utilisation en lutte biologique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Certains de ces microhyménoptères sont utilisés en lutte biologique contre les pucerons, comme :
 Aphidius ervi
@@ -581,10 +597,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tribus
-Aphidiini - Ephedrini - Praini
-Aperçu des genres
-Adialytus - Areopraon - Choreopraon - Dyscritulus - Ephedrus - Praon - Pseudopraon - Toxares - †Diospilites - †Propraon
+          <t>Tribus</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aphidiini - Ephedrini - Praini
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aphidiinae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aphidiinae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Aperçu des genres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adialytus - Areopraon - Choreopraon - Dyscritulus - Ephedrus - Praon - Pseudopraon - Toxares - †Diospilites - †Propraon
 </t>
         </is>
       </c>
